--- a/code/DV_training/Training_region_partitioning.xlsx
+++ b/code/DV_training/Training_region_partitioning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dj20y461/Data_temp/Stickleback/FITNESS/code/DV_training/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6F90BC8-AAC5-2641-BE8B-6CD4C3277EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBE9799-AEA6-2145-8EF5-3E933A0B3B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{2044D0F2-D973-8F44-92B3-8334DDAB70B0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="28">
   <si>
     <t>FG</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>WB</t>
+  </si>
+  <si>
+    <t>TRAIN</t>
+  </si>
+  <si>
+    <t>VALIDATE</t>
   </si>
   <si>
     <t>NC_053212.1_chromosome_1</t>
@@ -142,7 +148,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,6 +179,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -186,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -195,6 +219,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,31 +556,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC444A0F-66A1-364E-B129-E2A36BAA8D48}">
-  <dimension ref="A2:AB37"/>
+  <dimension ref="A2:AB41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="T27" sqref="T27:V33"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="P54" sqref="P54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.83203125" customWidth="1"/>
-    <col min="4" max="4" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" customWidth="1"/>
     <col min="5" max="5" width="4.33203125" customWidth="1"/>
     <col min="6" max="6" width="15.33203125" customWidth="1"/>
     <col min="7" max="7" width="5.33203125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.5" customWidth="1"/>
-    <col min="10" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.83203125" style="7" customWidth="1"/>
-    <col min="12" max="12" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="2.1640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="4.1640625" style="7" customWidth="1"/>
-    <col min="16" max="16" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="2.1640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="5" style="7" customWidth="1"/>
-    <col min="20" max="20" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.83203125" customWidth="1"/>
     <col min="29" max="29" width="26.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -577,7 +605,7 @@
       <c r="N2" s="4"/>
       <c r="O2" s="6"/>
       <c r="P2" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
@@ -588,7 +616,7 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -661,7 +689,7 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -734,7 +762,7 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -807,7 +835,7 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -883,7 +911,7 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -959,7 +987,7 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1035,7 +1063,7 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1111,7 +1139,7 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1187,7 +1215,7 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1263,7 +1291,7 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1339,7 +1367,7 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1415,7 +1443,7 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1491,7 +1519,7 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1567,7 +1595,7 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1643,7 +1671,7 @@
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1719,7 +1747,7 @@
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1795,7 +1823,7 @@
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1871,7 +1899,7 @@
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1947,7 +1975,7 @@
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2023,7 +2051,7 @@
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2099,7 +2127,7 @@
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -2184,13 +2212,21 @@
       <c r="Z25" s="5"/>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
       <c r="X26" s="5"/>
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="D27" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E27" s="1">
         <v>0</v>
@@ -2199,7 +2235,7 @@
         <v>17759012</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I27" s="1">
         <v>0</v>
@@ -2208,7 +2244,7 @@
         <v>29619991</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -2217,7 +2253,7 @@
         <v>23686546</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q27" s="1">
         <v>0</v>
@@ -2225,8 +2261,9 @@
       <c r="R27" s="1">
         <v>17759012</v>
       </c>
+      <c r="S27" s="10"/>
       <c r="T27" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U27" s="1">
         <v>0</v>
@@ -2234,13 +2271,14 @@
       <c r="V27" s="1">
         <v>29619991</v>
       </c>
+      <c r="W27" s="10"/>
       <c r="X27" s="5"/>
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D28" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E28" s="1">
         <v>0</v>
@@ -2249,7 +2287,7 @@
         <v>18825451</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I28" s="1">
         <v>0</v>
@@ -2258,7 +2296,7 @@
         <v>34181212</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -2267,7 +2305,7 @@
         <v>15550311</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q28" s="1">
         <v>0</v>
@@ -2275,22 +2313,24 @@
       <c r="R28" s="1">
         <v>18825451</v>
       </c>
+      <c r="S28" s="10"/>
       <c r="T28" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U28" s="1">
         <v>0</v>
       </c>
       <c r="V28" s="1">
-        <v>34181212</v>
-      </c>
+        <v>29619991</v>
+      </c>
+      <c r="W28" s="10"/>
       <c r="X28" s="5"/>
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D29" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E29" s="1">
         <v>0</v>
@@ -2299,7 +2339,7 @@
         <v>20843631</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I29" s="1">
         <v>0</v>
@@ -2308,7 +2348,7 @@
         <v>30776923</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -2317,7 +2357,7 @@
         <v>20553084</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q29" s="1">
         <v>0</v>
@@ -2325,22 +2365,24 @@
       <c r="R29" s="1">
         <v>20843631</v>
       </c>
+      <c r="S29" s="10"/>
       <c r="T29" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U29" s="1">
         <v>0</v>
       </c>
       <c r="V29" s="1">
-        <v>30776923</v>
-      </c>
+        <v>29619991</v>
+      </c>
+      <c r="W29" s="10"/>
       <c r="X29" s="5"/>
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D30" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
@@ -2349,7 +2391,7 @@
         <v>20694444</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I30" s="1">
         <v>0</v>
@@ -2358,7 +2400,7 @@
         <v>17985176</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -2367,7 +2409,7 @@
         <v>17651971</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q30" s="1">
         <v>0</v>
@@ -2375,22 +2417,24 @@
       <c r="R30" s="1">
         <v>20694444</v>
       </c>
+      <c r="S30" s="10"/>
       <c r="T30" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="U30" s="1">
         <v>0</v>
       </c>
       <c r="V30" s="1">
-        <v>17985176</v>
-      </c>
+        <v>29619991</v>
+      </c>
+      <c r="W30" s="10"/>
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D31" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E31" s="1">
         <v>0</v>
@@ -2399,7 +2443,7 @@
         <v>17318724</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I31" s="1">
         <v>0</v>
@@ -2408,7 +2452,7 @@
         <v>20748428</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -2417,7 +2461,7 @@
         <v>16147532</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q31" s="1">
         <v>0</v>
@@ -2425,22 +2469,24 @@
       <c r="R31" s="1">
         <v>17318724</v>
       </c>
+      <c r="S31" s="10"/>
       <c r="T31" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="U31" s="1">
         <v>0</v>
       </c>
       <c r="V31" s="1">
-        <v>20748428</v>
-      </c>
+        <v>29619991</v>
+      </c>
+      <c r="W31" s="10"/>
       <c r="X31" s="5"/>
       <c r="Y31" s="5"/>
       <c r="Z31" s="5"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D32" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E32" s="1">
         <v>0</v>
@@ -2449,7 +2495,7 @@
         <v>15939336</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I32" s="1">
         <v>0</v>
@@ -2458,7 +2504,7 @@
         <v>19507025</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -2467,7 +2513,7 @@
         <v>20195758</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q32" s="1">
         <v>0</v>
@@ -2475,22 +2521,24 @@
       <c r="R32" s="1">
         <v>15939336</v>
       </c>
+      <c r="S32" s="10"/>
       <c r="T32" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="U32" s="1">
         <v>0</v>
       </c>
       <c r="V32" s="1">
-        <v>19507025</v>
-      </c>
+        <v>29619991</v>
+      </c>
+      <c r="W32" s="10"/>
       <c r="X32" s="5"/>
       <c r="Y32" s="5"/>
       <c r="Z32" s="5"/>
     </row>
-    <row r="33" spans="4:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D33" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E33" s="1">
         <v>0</v>
@@ -2499,7 +2547,7 @@
         <v>17421465</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I33" s="1">
         <v>0</v>
@@ -2508,7 +2556,7 @@
         <v>20580295</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -2517,7 +2565,7 @@
         <v>20445003</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q33" s="1">
         <v>0</v>
@@ -2525,38 +2573,371 @@
       <c r="R33" s="1">
         <v>17421465</v>
       </c>
+      <c r="S33" s="10"/>
       <c r="T33" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="U33" s="1">
         <v>0</v>
       </c>
       <c r="V33" s="1">
-        <v>20580295</v>
-      </c>
+        <v>29619991</v>
+      </c>
+      <c r="W33" s="10"/>
       <c r="X33" s="5"/>
       <c r="Y33" s="5"/>
       <c r="Z33" s="5"/>
     </row>
-    <row r="34" spans="4:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
       <c r="X34" s="5"/>
       <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
     </row>
-    <row r="35" spans="4:26" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2">
+        <v>29619991</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2">
+        <v>23686546</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0</v>
+      </c>
+      <c r="N35" s="2">
+        <v>17759012</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>0</v>
+      </c>
+      <c r="R35" s="2">
+        <v>29619991</v>
+      </c>
+      <c r="T35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U35" s="2">
+        <v>0</v>
+      </c>
+      <c r="V35" s="2">
+        <v>23686546</v>
+      </c>
       <c r="X35" s="5"/>
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
     </row>
-    <row r="36" spans="4:26" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2">
+        <v>34181212</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2">
+        <v>15550311</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M36" s="2">
+        <v>0</v>
+      </c>
+      <c r="N36" s="2">
+        <v>18825451</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>0</v>
+      </c>
+      <c r="R36" s="2">
+        <v>34181212</v>
+      </c>
+      <c r="T36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="U36" s="2">
+        <v>0</v>
+      </c>
+      <c r="V36" s="2">
+        <v>15550311</v>
+      </c>
       <c r="X36" s="5"/>
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
     </row>
-    <row r="37" spans="4:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2">
+        <v>30776923</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2">
+        <v>20553084</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M37" s="2">
+        <v>0</v>
+      </c>
+      <c r="N37" s="2">
+        <v>20843631</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>0</v>
+      </c>
+      <c r="R37" s="2">
+        <v>30776923</v>
+      </c>
+      <c r="T37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="U37" s="2">
+        <v>0</v>
+      </c>
+      <c r="V37" s="2">
+        <v>20553084</v>
+      </c>
       <c r="X37" s="5"/>
       <c r="Y37" s="5"/>
       <c r="Z37" s="5"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
+        <v>17985176</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2">
+        <v>17651971</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M38" s="2">
+        <v>0</v>
+      </c>
+      <c r="N38" s="2">
+        <v>20694444</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>0</v>
+      </c>
+      <c r="R38" s="2">
+        <v>17985176</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U38" s="2">
+        <v>0</v>
+      </c>
+      <c r="V38" s="2">
+        <v>17651971</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
+      <c r="F39" s="2">
+        <v>20748428</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2">
+        <v>16147532</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M39" s="2">
+        <v>0</v>
+      </c>
+      <c r="N39" s="2">
+        <v>17318724</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>0</v>
+      </c>
+      <c r="R39" s="2">
+        <v>20748428</v>
+      </c>
+      <c r="T39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U39" s="2">
+        <v>0</v>
+      </c>
+      <c r="V39" s="2">
+        <v>16147532</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0</v>
+      </c>
+      <c r="F40" s="2">
+        <v>19507025</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0</v>
+      </c>
+      <c r="J40" s="2">
+        <v>20195758</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M40" s="2">
+        <v>0</v>
+      </c>
+      <c r="N40" s="2">
+        <v>15939336</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>0</v>
+      </c>
+      <c r="R40" s="2">
+        <v>19507025</v>
+      </c>
+      <c r="T40" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="U40" s="2">
+        <v>0</v>
+      </c>
+      <c r="V40" s="2">
+        <v>20195758</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0</v>
+      </c>
+      <c r="F41" s="2">
+        <v>20580295</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0</v>
+      </c>
+      <c r="J41" s="2">
+        <v>20445003</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M41" s="2">
+        <v>0</v>
+      </c>
+      <c r="N41" s="2">
+        <v>17421465</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>0</v>
+      </c>
+      <c r="R41" s="2">
+        <v>20580295</v>
+      </c>
+      <c r="T41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U41" s="2">
+        <v>0</v>
+      </c>
+      <c r="V41" s="2">
+        <v>20445003</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
